--- a/data/pca/factorExposure/factorExposure_2014-11-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.008423658956984187</v>
+        <v>-0.01454429823522155</v>
       </c>
       <c r="C2">
-        <v>-0.1079823389105654</v>
+        <v>0.08532875032339909</v>
       </c>
       <c r="D2">
-        <v>0.08459692402190609</v>
+        <v>-0.01763920983366806</v>
       </c>
       <c r="E2">
-        <v>0.128360016365884</v>
+        <v>0.1287342086273685</v>
       </c>
       <c r="F2">
-        <v>-0.2102831243568341</v>
+        <v>-0.08577497420397456</v>
       </c>
       <c r="G2">
-        <v>0.02391876851032392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04818295035749565</v>
+      </c>
+      <c r="H2">
+        <v>0.05418092750981807</v>
+      </c>
+      <c r="I2">
+        <v>-0.07490852505363531</v>
+      </c>
+      <c r="J2">
+        <v>-0.2067320169986138</v>
+      </c>
+      <c r="K2">
+        <v>-0.09151043823252507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03312326167108633</v>
+        <v>-0.02089658602170994</v>
       </c>
       <c r="C4">
-        <v>-0.1650953857639742</v>
+        <v>0.1557836504827347</v>
       </c>
       <c r="D4">
-        <v>0.003120298314801436</v>
+        <v>-0.04935787636072889</v>
       </c>
       <c r="E4">
-        <v>0.07415868677205778</v>
+        <v>0.07039990626710396</v>
       </c>
       <c r="F4">
-        <v>0.04455745244842545</v>
+        <v>0.02306738557681857</v>
       </c>
       <c r="G4">
-        <v>-0.01746969996758121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.01031031988172308</v>
+      </c>
+      <c r="H4">
+        <v>0.1180830897924402</v>
+      </c>
+      <c r="I4">
+        <v>0.009162385998951731</v>
+      </c>
+      <c r="J4">
+        <v>-0.1477712095476398</v>
+      </c>
+      <c r="K4">
+        <v>0.05729872692835913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.0246615323706565</v>
+        <v>-0.0372358442959367</v>
       </c>
       <c r="C6">
-        <v>-0.07922971903984709</v>
+        <v>0.07433362647780886</v>
       </c>
       <c r="D6">
-        <v>0.03034754883810874</v>
+        <v>-0.02193027809711755</v>
       </c>
       <c r="E6">
-        <v>0.0976082919374904</v>
+        <v>0.07835076236942372</v>
       </c>
       <c r="F6">
-        <v>4.442485367272533e-05</v>
+        <v>-0.0547736767619063</v>
       </c>
       <c r="G6">
-        <v>0.04950936047374639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.06165673530196495</v>
+      </c>
+      <c r="H6">
+        <v>0.04331239858066344</v>
+      </c>
+      <c r="I6">
+        <v>-0.06585374415421259</v>
+      </c>
+      <c r="J6">
+        <v>-0.04105456146156986</v>
+      </c>
+      <c r="K6">
+        <v>-0.04482935766844193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.009885811469103285</v>
+        <v>-0.01288751297831717</v>
       </c>
       <c r="C7">
-        <v>-0.0504232852456627</v>
+        <v>0.0657288410260323</v>
       </c>
       <c r="D7">
-        <v>0.0101466103583015</v>
+        <v>-0.01348426697044318</v>
       </c>
       <c r="E7">
-        <v>0.07021722742145832</v>
+        <v>0.02548191532338157</v>
       </c>
       <c r="F7">
-        <v>0.01363930210088887</v>
+        <v>0.01711936360282449</v>
       </c>
       <c r="G7">
-        <v>-0.01124023801625533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.06328509519779825</v>
+      </c>
+      <c r="H7">
+        <v>0.09091303212289303</v>
+      </c>
+      <c r="I7">
+        <v>-0.018728098689468</v>
+      </c>
+      <c r="J7">
+        <v>-0.04549974324070223</v>
+      </c>
+      <c r="K7">
+        <v>0.001276718513339297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.02027482639595799</v>
+        <v>0.00924675070842384</v>
       </c>
       <c r="C8">
-        <v>-0.08264196351625976</v>
+        <v>0.07424082046174316</v>
       </c>
       <c r="D8">
-        <v>0.03738412175564924</v>
+        <v>-0.03936990159367804</v>
       </c>
       <c r="E8">
-        <v>0.1456028644175549</v>
+        <v>0.09009386946172232</v>
       </c>
       <c r="F8">
-        <v>-0.03778954421519767</v>
+        <v>-0.009498163253892255</v>
       </c>
       <c r="G8">
-        <v>-0.07822673193566748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.03599767441667882</v>
+      </c>
+      <c r="H8">
+        <v>0.04045323954009813</v>
+      </c>
+      <c r="I8">
+        <v>-0.002842125314452229</v>
+      </c>
+      <c r="J8">
+        <v>-0.004753149154068621</v>
+      </c>
+      <c r="K8">
+        <v>0.01626588628876964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01697291380441186</v>
+        <v>-0.01304722950376611</v>
       </c>
       <c r="C9">
-        <v>-0.1372125299484022</v>
+        <v>0.1192174297338978</v>
       </c>
       <c r="D9">
-        <v>-0.002770000669830344</v>
+        <v>-0.0333282120390347</v>
       </c>
       <c r="E9">
-        <v>0.05564254715821247</v>
+        <v>0.03208541024252339</v>
       </c>
       <c r="F9">
-        <v>0.02491690710214233</v>
+        <v>-0.0007262177131682015</v>
       </c>
       <c r="G9">
-        <v>0.01638008918062935</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001008455987789701</v>
+      </c>
+      <c r="H9">
+        <v>0.0994562794874882</v>
+      </c>
+      <c r="I9">
+        <v>-0.0249340537859763</v>
+      </c>
+      <c r="J9">
+        <v>-0.06209705921718376</v>
+      </c>
+      <c r="K9">
+        <v>0.05220500005090567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2659632318068874</v>
+        <v>-0.2485828069689169</v>
       </c>
       <c r="C10">
-        <v>0.09656314600260792</v>
+        <v>-0.09354482971683208</v>
       </c>
       <c r="D10">
-        <v>0.03438419190923472</v>
+        <v>0.0001465030718900529</v>
       </c>
       <c r="E10">
-        <v>0.003937309312398365</v>
+        <v>0.01745233977342454</v>
       </c>
       <c r="F10">
-        <v>0.02303866083439253</v>
+        <v>-0.01261011070552033</v>
       </c>
       <c r="G10">
-        <v>-0.06567289459467175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01355748851885769</v>
+      </c>
+      <c r="H10">
+        <v>0.05146240357839581</v>
+      </c>
+      <c r="I10">
+        <v>0.1585427275160017</v>
+      </c>
+      <c r="J10">
+        <v>0.08759688245459302</v>
+      </c>
+      <c r="K10">
+        <v>0.03255261138258408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01024482440918238</v>
+        <v>-0.01536957733647946</v>
       </c>
       <c r="C11">
-        <v>-0.06598208073909269</v>
+        <v>0.08118599442807055</v>
       </c>
       <c r="D11">
-        <v>-0.006455889504673975</v>
+        <v>-0.02666399446815107</v>
       </c>
       <c r="E11">
-        <v>0.03347055868678353</v>
+        <v>0.004267415069859701</v>
       </c>
       <c r="F11">
-        <v>0.05586012508587328</v>
+        <v>0.009853098259677479</v>
       </c>
       <c r="G11">
-        <v>0.02947797121342056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02740713003052967</v>
+      </c>
+      <c r="H11">
+        <v>0.03044544392160218</v>
+      </c>
+      <c r="I11">
+        <v>-0.003072636317534521</v>
+      </c>
+      <c r="J11">
+        <v>0.03479883112068055</v>
+      </c>
+      <c r="K11">
+        <v>0.04379524862390401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.009433967006782678</v>
+        <v>-0.01586679854207069</v>
       </c>
       <c r="C12">
-        <v>-0.0637906705811627</v>
+        <v>0.06381505886983317</v>
       </c>
       <c r="D12">
-        <v>-0.0148091428694979</v>
+        <v>-0.01597429381643293</v>
       </c>
       <c r="E12">
-        <v>0.02223214333513476</v>
+        <v>-0.003683314135947106</v>
       </c>
       <c r="F12">
-        <v>0.02769648440438331</v>
+        <v>-0.01709169160386307</v>
       </c>
       <c r="G12">
-        <v>0.05762311266952674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.03429094841147307</v>
+      </c>
+      <c r="H12">
+        <v>0.03080083029667785</v>
+      </c>
+      <c r="I12">
+        <v>-0.008296522633177665</v>
+      </c>
+      <c r="J12">
+        <v>0.01665879545004843</v>
+      </c>
+      <c r="K12">
+        <v>0.04717103643210934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01908277808310304</v>
+        <v>-0.005807618804701924</v>
       </c>
       <c r="C13">
-        <v>-0.104795037657204</v>
+        <v>0.1140640955447175</v>
       </c>
       <c r="D13">
-        <v>-0.004219881710252311</v>
+        <v>-0.02755739664496337</v>
       </c>
       <c r="E13">
-        <v>0.1243624757416625</v>
+        <v>0.09304732908913882</v>
       </c>
       <c r="F13">
-        <v>0.02664662952227046</v>
+        <v>-0.1306358572122162</v>
       </c>
       <c r="G13">
-        <v>0.1552976088312483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.112648366439173</v>
+      </c>
+      <c r="H13">
+        <v>0.09980306826351548</v>
+      </c>
+      <c r="I13">
+        <v>0.165146309872971</v>
+      </c>
+      <c r="J13">
+        <v>0.09246721855441818</v>
+      </c>
+      <c r="K13">
+        <v>-0.03491247439945904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01121941239191945</v>
+        <v>-0.01687028926157909</v>
       </c>
       <c r="C14">
-        <v>-0.05970168223724729</v>
+        <v>0.0750601747743347</v>
       </c>
       <c r="D14">
-        <v>0.005832683390956781</v>
+        <v>-0.03550195751081767</v>
       </c>
       <c r="E14">
-        <v>0.05483477402246627</v>
+        <v>0.03188407870159353</v>
       </c>
       <c r="F14">
-        <v>0.002961703868661426</v>
+        <v>-0.05019478148559698</v>
       </c>
       <c r="G14">
-        <v>0.07498259779396876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0976515138169408</v>
+      </c>
+      <c r="H14">
+        <v>0.1991521652420133</v>
+      </c>
+      <c r="I14">
+        <v>-0.02047149558507601</v>
+      </c>
+      <c r="J14">
+        <v>0.1318584676130827</v>
+      </c>
+      <c r="K14">
+        <v>-0.1482679229934278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.001447904699878529</v>
+        <v>-0.000768311776397418</v>
       </c>
       <c r="C15">
-        <v>-0.08002660762924069</v>
+        <v>0.07445644904401236</v>
       </c>
       <c r="D15">
-        <v>0.02370059257665074</v>
+        <v>-0.02352565567862441</v>
       </c>
       <c r="E15">
-        <v>0.09993341809464425</v>
+        <v>0.04998910407879383</v>
       </c>
       <c r="F15">
-        <v>0.01701654766128538</v>
+        <v>-0.001937096874415358</v>
       </c>
       <c r="G15">
-        <v>0.03450006173965368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.05118751276400535</v>
+      </c>
+      <c r="H15">
+        <v>0.06943265812550091</v>
+      </c>
+      <c r="I15">
+        <v>-0.02007043895722047</v>
+      </c>
+      <c r="J15">
+        <v>0.0471854926194241</v>
+      </c>
+      <c r="K15">
+        <v>-0.01335776245143472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01667793922099899</v>
+        <v>-0.01665406896552205</v>
       </c>
       <c r="C16">
-        <v>-0.06150450654001166</v>
+        <v>0.0670088402449235</v>
       </c>
       <c r="D16">
-        <v>-0.005063428658486969</v>
+        <v>-0.01862280425133506</v>
       </c>
       <c r="E16">
-        <v>0.02161239639840858</v>
+        <v>-0.001414721753132942</v>
       </c>
       <c r="F16">
-        <v>0.03306461692126184</v>
+        <v>0.002730309362089458</v>
       </c>
       <c r="G16">
-        <v>0.04863098744331742</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02542138302989029</v>
+      </c>
+      <c r="H16">
+        <v>0.02804126435692422</v>
+      </c>
+      <c r="I16">
+        <v>-0.009343096637807363</v>
+      </c>
+      <c r="J16">
+        <v>0.01282825673819487</v>
+      </c>
+      <c r="K16">
+        <v>0.02918294933155511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01490560445784737</v>
+        <v>-0.01209086486663589</v>
       </c>
       <c r="C20">
-        <v>-0.0752025375724388</v>
+        <v>0.0845479676657121</v>
       </c>
       <c r="D20">
-        <v>0.01683960100823347</v>
+        <v>-0.01046808497035437</v>
       </c>
       <c r="E20">
-        <v>0.05573789736797285</v>
+        <v>0.01697899141701639</v>
       </c>
       <c r="F20">
-        <v>0.06747674520825192</v>
+        <v>0.02292648340383381</v>
       </c>
       <c r="G20">
-        <v>0.05752960786477525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.06918811723911349</v>
+      </c>
+      <c r="H20">
+        <v>0.06716486677425729</v>
+      </c>
+      <c r="I20">
+        <v>-0.0201979770539657</v>
+      </c>
+      <c r="J20">
+        <v>-0.009780946439506385</v>
+      </c>
+      <c r="K20">
+        <v>0.0182506857506789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.007934080211894411</v>
+        <v>-0.01306684080703933</v>
       </c>
       <c r="C21">
-        <v>-0.1059465518026678</v>
+        <v>0.08910341262725879</v>
       </c>
       <c r="D21">
-        <v>0.04420275548581618</v>
+        <v>-0.01748901628174718</v>
       </c>
       <c r="E21">
-        <v>0.01638494153901487</v>
+        <v>0.01458255675784804</v>
       </c>
       <c r="F21">
-        <v>-0.03498200142864233</v>
+        <v>-0.08705591078314286</v>
       </c>
       <c r="G21">
-        <v>0.04080098456972694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.01019325302339975</v>
+      </c>
+      <c r="H21">
+        <v>0.1479948789792705</v>
+      </c>
+      <c r="I21">
+        <v>0.02960211157562062</v>
+      </c>
+      <c r="J21">
+        <v>0.04513313319621289</v>
+      </c>
+      <c r="K21">
+        <v>0.01973186369830248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.00439469101706252</v>
+        <v>0.007941078147303021</v>
       </c>
       <c r="C22">
-        <v>-0.1510354281814157</v>
+        <v>0.1591705399930979</v>
       </c>
       <c r="D22">
-        <v>0.2761685299131504</v>
+        <v>-0.005318685588697122</v>
       </c>
       <c r="E22">
-        <v>0.2578406978333003</v>
+        <v>0.5063455648449168</v>
       </c>
       <c r="F22">
-        <v>-0.05371176967695141</v>
+        <v>0.03679496477955423</v>
       </c>
       <c r="G22">
-        <v>-0.290699902579759</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1586866848560549</v>
+      </c>
+      <c r="H22">
+        <v>-0.3133207380068818</v>
+      </c>
+      <c r="I22">
+        <v>0.07514279171071189</v>
+      </c>
+      <c r="J22">
+        <v>0.1868684343079131</v>
+      </c>
+      <c r="K22">
+        <v>0.03118773281710787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.00494608269093594</v>
+        <v>0.003937531701104648</v>
       </c>
       <c r="C23">
-        <v>-0.1526641913447631</v>
+        <v>0.1634438380730902</v>
       </c>
       <c r="D23">
-        <v>0.2743887874265227</v>
+        <v>-0.003397694538939516</v>
       </c>
       <c r="E23">
-        <v>0.2546823463758567</v>
+        <v>0.4924454087041361</v>
       </c>
       <c r="F23">
-        <v>-0.05328586141794012</v>
+        <v>0.03350585561985832</v>
       </c>
       <c r="G23">
-        <v>-0.2905828949664863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.153596544687121</v>
+      </c>
+      <c r="H23">
+        <v>-0.2920214608402042</v>
+      </c>
+      <c r="I23">
+        <v>0.07228229218510869</v>
+      </c>
+      <c r="J23">
+        <v>0.1778857998412702</v>
+      </c>
+      <c r="K23">
+        <v>0.0412044397695756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005583201164841893</v>
+        <v>-0.01594176113772791</v>
       </c>
       <c r="C24">
-        <v>-0.08007837411230222</v>
+        <v>0.07780865215249312</v>
       </c>
       <c r="D24">
-        <v>-0.02349425491323237</v>
+        <v>-0.03240895703633906</v>
       </c>
       <c r="E24">
-        <v>0.03561891031691552</v>
+        <v>0.001963370371652705</v>
       </c>
       <c r="F24">
-        <v>0.03826671015582302</v>
+        <v>0.005776040942968763</v>
       </c>
       <c r="G24">
-        <v>0.04050617533565628</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03071859524507209</v>
+      </c>
+      <c r="H24">
+        <v>0.040024387281043</v>
+      </c>
+      <c r="I24">
+        <v>-0.01065363981162312</v>
+      </c>
+      <c r="J24">
+        <v>0.0195570274429188</v>
+      </c>
+      <c r="K24">
+        <v>0.04707093535420508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01013978567047759</v>
+        <v>-0.02051931906245703</v>
       </c>
       <c r="C25">
-        <v>-0.07224950454049246</v>
+        <v>0.07459662500047627</v>
       </c>
       <c r="D25">
-        <v>-0.003971281457220259</v>
+        <v>-0.0213337276662298</v>
       </c>
       <c r="E25">
-        <v>0.02464165312164753</v>
+        <v>0.005437414337307741</v>
       </c>
       <c r="F25">
-        <v>0.04602936727824158</v>
+        <v>0.006919332959311364</v>
       </c>
       <c r="G25">
-        <v>0.03769272982447609</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03275180132048193</v>
+      </c>
+      <c r="H25">
+        <v>0.03283604380136739</v>
+      </c>
+      <c r="I25">
+        <v>0.005216308750194392</v>
+      </c>
+      <c r="J25">
+        <v>0.03267224387635215</v>
+      </c>
+      <c r="K25">
+        <v>0.03402213860307259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01537627277069137</v>
+        <v>-0.02445108909310525</v>
       </c>
       <c r="C26">
-        <v>-0.05720023504429789</v>
+        <v>0.06464288657293847</v>
       </c>
       <c r="D26">
-        <v>-0.01889888639769485</v>
+        <v>-0.0509923454787863</v>
       </c>
       <c r="E26">
-        <v>0.04435736735590733</v>
+        <v>-0.002125236079343752</v>
       </c>
       <c r="F26">
-        <v>-0.00525893083970512</v>
+        <v>-0.0001475285515283637</v>
       </c>
       <c r="G26">
-        <v>0.03218210661390737</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.008339448598519907</v>
+      </c>
+      <c r="H26">
+        <v>0.1041394141482924</v>
+      </c>
+      <c r="I26">
+        <v>-0.04620015051223605</v>
+      </c>
+      <c r="J26">
+        <v>-0.0607348531442071</v>
+      </c>
+      <c r="K26">
+        <v>0.07887916413625935</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3671521305603614</v>
+        <v>-0.3223563762698237</v>
       </c>
       <c r="C28">
-        <v>0.1025320783615661</v>
+        <v>-0.1112701193725471</v>
       </c>
       <c r="D28">
-        <v>-0.001948611673493975</v>
+        <v>0.0217546089466863</v>
       </c>
       <c r="E28">
-        <v>-0.06842349579662264</v>
+        <v>0.005854706743053047</v>
       </c>
       <c r="F28">
-        <v>-0.03464113231036224</v>
+        <v>-0.006861251988376031</v>
       </c>
       <c r="G28">
-        <v>-0.02982697842960573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1112798607989482</v>
+      </c>
+      <c r="H28">
+        <v>0.09412183913708437</v>
+      </c>
+      <c r="I28">
+        <v>0.1858834986439627</v>
+      </c>
+      <c r="J28">
+        <v>-0.05658762581500988</v>
+      </c>
+      <c r="K28">
+        <v>-0.02123619741148612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01080293897110126</v>
+        <v>-0.01140813896867773</v>
       </c>
       <c r="C29">
-        <v>-0.06193126979568173</v>
+        <v>0.07901531167097366</v>
       </c>
       <c r="D29">
-        <v>0.015483378198053</v>
+        <v>-0.03830400609110815</v>
       </c>
       <c r="E29">
-        <v>0.09884004816416377</v>
+        <v>0.05994349497878487</v>
       </c>
       <c r="F29">
-        <v>0.0344984154460403</v>
+        <v>-0.06550132113212405</v>
       </c>
       <c r="G29">
-        <v>0.1115173953123042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1596527114993617</v>
+      </c>
+      <c r="H29">
+        <v>0.2855842888545947</v>
+      </c>
+      <c r="I29">
+        <v>-0.02479154192349091</v>
+      </c>
+      <c r="J29">
+        <v>0.1929222185552914</v>
+      </c>
+      <c r="K29">
+        <v>-0.2696688871369957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03496346454567474</v>
+        <v>-0.027525983547092</v>
       </c>
       <c r="C30">
-        <v>-0.1782518194286313</v>
+        <v>0.1544436070139744</v>
       </c>
       <c r="D30">
-        <v>-0.006434415270046321</v>
+        <v>-0.04684950949903125</v>
       </c>
       <c r="E30">
-        <v>0.07821507424215146</v>
+        <v>0.05320293997033167</v>
       </c>
       <c r="F30">
-        <v>0.0113736669846957</v>
+        <v>0.00523356180766142</v>
       </c>
       <c r="G30">
-        <v>-0.02659140315492469</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.006294297360783685</v>
+      </c>
+      <c r="H30">
+        <v>0.02745204477922409</v>
+      </c>
+      <c r="I30">
+        <v>-0.05312632941962549</v>
+      </c>
+      <c r="J30">
+        <v>-0.08827680332152281</v>
+      </c>
+      <c r="K30">
+        <v>0.02899328763490845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.001133768107015712</v>
+        <v>-0.01209487683917914</v>
       </c>
       <c r="C31">
-        <v>-0.0942507409991744</v>
+        <v>0.09565406885548798</v>
       </c>
       <c r="D31">
-        <v>-0.04699880248605318</v>
+        <v>-0.03403442621221085</v>
       </c>
       <c r="E31">
-        <v>-0.02791044346835145</v>
+        <v>-0.02062370270532976</v>
       </c>
       <c r="F31">
-        <v>-0.01947106136581169</v>
+        <v>0.0005662138291584112</v>
       </c>
       <c r="G31">
-        <v>-0.03857470959048517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04514868394567376</v>
+      </c>
+      <c r="H31">
+        <v>0.03982858425544537</v>
+      </c>
+      <c r="I31">
+        <v>0.008633134925348203</v>
+      </c>
+      <c r="J31">
+        <v>0.05498661642203076</v>
+      </c>
+      <c r="K31">
+        <v>0.02756546093176059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03242992328827656</v>
+        <v>-0.02266711387948399</v>
       </c>
       <c r="C32">
-        <v>-0.08773702280938815</v>
+        <v>0.06846661933331323</v>
       </c>
       <c r="D32">
-        <v>0.0647875939325649</v>
+        <v>-0.01381640642601501</v>
       </c>
       <c r="E32">
-        <v>0.1351209893591101</v>
+        <v>0.09289298630764284</v>
       </c>
       <c r="F32">
-        <v>-0.03980335331958865</v>
+        <v>-0.08267093943569252</v>
       </c>
       <c r="G32">
-        <v>0.06340961734693627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04602107079687408</v>
+      </c>
+      <c r="H32">
+        <v>0.1540128756961895</v>
+      </c>
+      <c r="I32">
+        <v>0.231129724953119</v>
+      </c>
+      <c r="J32">
+        <v>-0.05773938853697499</v>
+      </c>
+      <c r="K32">
+        <v>-0.1600150163405193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009289757436933419</v>
+        <v>-0.01527803685026047</v>
       </c>
       <c r="C33">
-        <v>-0.09156994948625209</v>
+        <v>0.1097515392959109</v>
       </c>
       <c r="D33">
-        <v>-0.01094654810389705</v>
+        <v>-0.03086675026974423</v>
       </c>
       <c r="E33">
-        <v>0.05994859860407965</v>
+        <v>0.03272589289405815</v>
       </c>
       <c r="F33">
-        <v>0.01068565003864668</v>
+        <v>-0.001660607833773265</v>
       </c>
       <c r="G33">
-        <v>0.02859720241448409</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03610599985785706</v>
+      </c>
+      <c r="H33">
+        <v>0.06330105081371838</v>
+      </c>
+      <c r="I33">
+        <v>0.01392499182562159</v>
+      </c>
+      <c r="J33">
+        <v>0.008178287789905205</v>
+      </c>
+      <c r="K33">
+        <v>0.02148349326438249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.006375019176953034</v>
+        <v>-0.01627552086359056</v>
       </c>
       <c r="C34">
-        <v>-0.05491497086821383</v>
+        <v>0.05346617738021796</v>
       </c>
       <c r="D34">
-        <v>-0.004740638880889253</v>
+        <v>-0.01595320777750362</v>
       </c>
       <c r="E34">
-        <v>0.02370515552105389</v>
+        <v>-0.001818540167820756</v>
       </c>
       <c r="F34">
-        <v>0.01896556810671974</v>
+        <v>-0.002571460289245715</v>
       </c>
       <c r="G34">
-        <v>0.03960728916698157</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02708179189755708</v>
+      </c>
+      <c r="H34">
+        <v>0.008968448783847345</v>
+      </c>
+      <c r="I34">
+        <v>0.002086031316329034</v>
+      </c>
+      <c r="J34">
+        <v>0.01493305838148154</v>
+      </c>
+      <c r="K34">
+        <v>0.03836089067465072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002223418920551143</v>
+        <v>-0.007829276848871209</v>
       </c>
       <c r="C35">
-        <v>-0.01112490271004287</v>
+        <v>0.03698820706905609</v>
       </c>
       <c r="D35">
-        <v>0.005724106959905464</v>
+        <v>-0.01167682262603355</v>
       </c>
       <c r="E35">
-        <v>0.01733712730554647</v>
+        <v>0.01736518593485896</v>
       </c>
       <c r="F35">
-        <v>0.01321358216820649</v>
+        <v>-0.01595336614327237</v>
       </c>
       <c r="G35">
-        <v>0.0260976306549248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.06865186422379528</v>
+      </c>
+      <c r="H35">
+        <v>0.1439167437351387</v>
+      </c>
+      <c r="I35">
+        <v>0.01418975088092998</v>
+      </c>
+      <c r="J35">
+        <v>0.1506247553276925</v>
+      </c>
+      <c r="K35">
+        <v>-0.1344337470322655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.008176751812031488</v>
+        <v>-0.01336394495638676</v>
       </c>
       <c r="C36">
-        <v>-0.05177876742302718</v>
+        <v>0.05163580527223068</v>
       </c>
       <c r="D36">
-        <v>-0.0227840141823728</v>
+        <v>-0.03943674176314309</v>
       </c>
       <c r="E36">
-        <v>0.05183752620439683</v>
+        <v>0.01624856558585428</v>
       </c>
       <c r="F36">
-        <v>-0.001215864092225623</v>
+        <v>-0.001805701467907859</v>
       </c>
       <c r="G36">
-        <v>0.01370934457674451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0137766258390317</v>
+      </c>
+      <c r="H36">
+        <v>0.06601683241654491</v>
+      </c>
+      <c r="I36">
+        <v>-0.01607691559217943</v>
+      </c>
+      <c r="J36">
+        <v>-0.01880149360863571</v>
+      </c>
+      <c r="K36">
+        <v>0.05743824341819027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.01394668535930665</v>
+        <v>-0.01038607790587256</v>
       </c>
       <c r="C38">
-        <v>-0.05489638565191012</v>
+        <v>0.06612813810102931</v>
       </c>
       <c r="D38">
-        <v>-0.005206876180672951</v>
+        <v>-0.02900458439286255</v>
       </c>
       <c r="E38">
-        <v>0.05414103970379487</v>
+        <v>0.03455489268481095</v>
       </c>
       <c r="F38">
-        <v>0.01624115398125141</v>
+        <v>0.02871991762424101</v>
       </c>
       <c r="G38">
-        <v>-0.03217838903986812</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.01505563366061096</v>
+      </c>
+      <c r="H38">
+        <v>0.07010017938462407</v>
+      </c>
+      <c r="I38">
+        <v>0.05897468291450616</v>
+      </c>
+      <c r="J38">
+        <v>0.03066642826637228</v>
+      </c>
+      <c r="K38">
+        <v>0.06924072441377774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.004613759695916248</v>
+        <v>-0.01526914761168737</v>
       </c>
       <c r="C39">
-        <v>-0.138979338433066</v>
+        <v>0.133819547502843</v>
       </c>
       <c r="D39">
-        <v>-0.003036513658992666</v>
+        <v>-0.0462106317227854</v>
       </c>
       <c r="E39">
-        <v>0.05841494046900585</v>
+        <v>0.01090136903488159</v>
       </c>
       <c r="F39">
-        <v>0.04639815244290069</v>
+        <v>-0.005215263606820858</v>
       </c>
       <c r="G39">
-        <v>0.04642255270856753</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05250882373125176</v>
+      </c>
+      <c r="H39">
+        <v>0.03791083252183639</v>
+      </c>
+      <c r="I39">
+        <v>-0.05723821389978957</v>
+      </c>
+      <c r="J39">
+        <v>0.0006432012862938893</v>
+      </c>
+      <c r="K39">
+        <v>0.05765794246117385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.002248442770607017</v>
+        <v>-0.01338231064581809</v>
       </c>
       <c r="C40">
-        <v>-0.03287742444545185</v>
+        <v>0.06342544615603327</v>
       </c>
       <c r="D40">
-        <v>0.01459862120955636</v>
+        <v>-0.02593313486824749</v>
       </c>
       <c r="E40">
-        <v>0.1422057021557415</v>
+        <v>0.09402687892330673</v>
       </c>
       <c r="F40">
-        <v>-0.02381836145443391</v>
+        <v>-0.04833462297978901</v>
       </c>
       <c r="G40">
-        <v>0.08736604753189066</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.13421759249456</v>
+      </c>
+      <c r="H40">
+        <v>0.002844333182937967</v>
+      </c>
+      <c r="I40">
+        <v>0.06235828103651502</v>
+      </c>
+      <c r="J40">
+        <v>0.2260818289261859</v>
+      </c>
+      <c r="K40">
+        <v>0.07139795678978847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.006827563818169687</v>
+        <v>-0.02040062890132758</v>
       </c>
       <c r="C41">
-        <v>-0.01715766911337573</v>
+        <v>0.04735801684512217</v>
       </c>
       <c r="D41">
-        <v>0.002608108156068831</v>
+        <v>-0.009528270386992476</v>
       </c>
       <c r="E41">
-        <v>-0.009037710079763363</v>
+        <v>-0.009267441642580527</v>
       </c>
       <c r="F41">
-        <v>-0.003744915158223508</v>
+        <v>0.005660312039704326</v>
       </c>
       <c r="G41">
-        <v>0.0006232452589796222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01106935564914433</v>
+      </c>
+      <c r="H41">
+        <v>0.03287875067119563</v>
+      </c>
+      <c r="I41">
+        <v>0.04185839321592344</v>
+      </c>
+      <c r="J41">
+        <v>0.06219873135328978</v>
+      </c>
+      <c r="K41">
+        <v>-0.002714845576018931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.001548218340549891</v>
+        <v>-0.01550433101681528</v>
       </c>
       <c r="C43">
-        <v>-0.01841744294212528</v>
+        <v>0.04482634014422796</v>
       </c>
       <c r="D43">
-        <v>-0.001425849127824546</v>
+        <v>-0.02474057922906605</v>
       </c>
       <c r="E43">
-        <v>0.02477544961069134</v>
+        <v>0.006980185450377291</v>
       </c>
       <c r="F43">
-        <v>0.02161732318482719</v>
+        <v>0.01598329847656995</v>
       </c>
       <c r="G43">
-        <v>0.0006524382593260515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01711212044154781</v>
+      </c>
+      <c r="H43">
+        <v>0.04754377033524429</v>
+      </c>
+      <c r="I43">
+        <v>0.01204038256736069</v>
+      </c>
+      <c r="J43">
+        <v>0.053581524167073</v>
+      </c>
+      <c r="K43">
+        <v>0.0006620731801570491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01847860172905811</v>
+        <v>-0.008880945413387707</v>
       </c>
       <c r="C44">
-        <v>-0.08623415297291</v>
+        <v>0.09123223128000393</v>
       </c>
       <c r="D44">
-        <v>0.04456550517276914</v>
+        <v>-0.04252122548278415</v>
       </c>
       <c r="E44">
-        <v>0.108958645688226</v>
+        <v>0.08734960208287448</v>
       </c>
       <c r="F44">
-        <v>0.02889624150927095</v>
+        <v>0.005285344207261115</v>
       </c>
       <c r="G44">
-        <v>0.00332571005947121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.03822435907928993</v>
+      </c>
+      <c r="H44">
+        <v>0.04005166907223057</v>
+      </c>
+      <c r="I44">
+        <v>-0.06392238477255237</v>
+      </c>
+      <c r="J44">
+        <v>-0.05599800499861506</v>
+      </c>
+      <c r="K44">
+        <v>-0.01521973990966713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.001672095794318605</v>
+        <v>-0.002997517453165718</v>
       </c>
       <c r="C46">
-        <v>-0.06411349806053131</v>
+        <v>0.06586159455266298</v>
       </c>
       <c r="D46">
-        <v>0.007372593214006053</v>
+        <v>-0.02083579009939367</v>
       </c>
       <c r="E46">
-        <v>0.05831327722504476</v>
+        <v>0.01188545696310035</v>
       </c>
       <c r="F46">
-        <v>0.02870795635891333</v>
+        <v>-0.01240095741643451</v>
       </c>
       <c r="G46">
-        <v>0.07356553215326037</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05414437507487529</v>
+      </c>
+      <c r="H46">
+        <v>0.1129779010129044</v>
+      </c>
+      <c r="I46">
+        <v>-0.003592559560614372</v>
+      </c>
+      <c r="J46">
+        <v>0.09092157247572526</v>
+      </c>
+      <c r="K46">
+        <v>-0.04671746043520091</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.005947188218554894</v>
+        <v>-0.02243009509907226</v>
       </c>
       <c r="C47">
-        <v>-0.1169876248866665</v>
+        <v>0.0991058148669742</v>
       </c>
       <c r="D47">
-        <v>-0.03998406183135508</v>
+        <v>-0.03531802400144735</v>
       </c>
       <c r="E47">
-        <v>-0.06050732161484319</v>
+        <v>-0.03309023803897826</v>
       </c>
       <c r="F47">
-        <v>-0.02635394934754856</v>
+        <v>-0.005090181151901911</v>
       </c>
       <c r="G47">
-        <v>-0.001028845095635466</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.0169046745821535</v>
+      </c>
+      <c r="H47">
+        <v>0.07597490039653994</v>
+      </c>
+      <c r="I47">
+        <v>0.03475123822937335</v>
+      </c>
+      <c r="J47">
+        <v>0.03930134068647743</v>
+      </c>
+      <c r="K47">
+        <v>0.04495119329846982</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01688300024427014</v>
+        <v>-0.02142820442819223</v>
       </c>
       <c r="C48">
-        <v>-0.0549213592997615</v>
+        <v>0.05851519195423999</v>
       </c>
       <c r="D48">
-        <v>-0.04454057710773143</v>
+        <v>-0.04998252689852854</v>
       </c>
       <c r="E48">
-        <v>0.052789403151455</v>
+        <v>0.006088388398813094</v>
       </c>
       <c r="F48">
-        <v>0.004944019129705673</v>
+        <v>0.001682606342875095</v>
       </c>
       <c r="G48">
-        <v>0.01518142548979867</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.00934290050072384</v>
+      </c>
+      <c r="H48">
+        <v>0.106711519179889</v>
+      </c>
+      <c r="I48">
+        <v>-0.03781372080179585</v>
+      </c>
+      <c r="J48">
+        <v>-0.05444457539438902</v>
+      </c>
+      <c r="K48">
+        <v>0.0889716215808488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.008326822040381092</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0159428494529078</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.004194695105296737</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.02632937589516322</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.009852174745607243</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.009949658281035251</v>
+      </c>
+      <c r="H49">
+        <v>-0.01735855958813351</v>
+      </c>
+      <c r="I49">
+        <v>-0.03266654378856119</v>
+      </c>
+      <c r="J49">
+        <v>-0.007422770362370315</v>
+      </c>
+      <c r="K49">
+        <v>-0.01199985116966979</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.003814328027194563</v>
+        <v>-0.01389562358599433</v>
       </c>
       <c r="C50">
-        <v>-0.09595884131801706</v>
+        <v>0.09014837706019778</v>
       </c>
       <c r="D50">
-        <v>-0.02160194705714589</v>
+        <v>-0.02038204278823752</v>
       </c>
       <c r="E50">
-        <v>-0.01563674818719451</v>
+        <v>-0.008489744662681237</v>
       </c>
       <c r="F50">
-        <v>-0.009541720934132669</v>
+        <v>0.004176754333111175</v>
       </c>
       <c r="G50">
-        <v>-0.04341117262099797</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02921425987058968</v>
+      </c>
+      <c r="H50">
+        <v>0.063931075083883</v>
+      </c>
+      <c r="I50">
+        <v>0.05349876876708699</v>
+      </c>
+      <c r="J50">
+        <v>0.03347126452904859</v>
+      </c>
+      <c r="K50">
+        <v>0.01174297877842869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.008811925292980581</v>
+        <v>0.004518774612725894</v>
       </c>
       <c r="C51">
-        <v>-0.0608843193582265</v>
+        <v>0.04137399080168226</v>
       </c>
       <c r="D51">
-        <v>0.0481035489660407</v>
+        <v>-0.01410030643109717</v>
       </c>
       <c r="E51">
-        <v>0.07926334958188487</v>
+        <v>0.03386294674839239</v>
       </c>
       <c r="F51">
-        <v>0.01007835211263815</v>
+        <v>-0.0172924980742578</v>
       </c>
       <c r="G51">
-        <v>0.01054735854507907</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02475539935074832</v>
+      </c>
+      <c r="H51">
+        <v>0.08831498838809403</v>
+      </c>
+      <c r="I51">
+        <v>-0.04503716546485045</v>
+      </c>
+      <c r="J51">
+        <v>-0.1166349070647068</v>
+      </c>
+      <c r="K51">
+        <v>0.0265733941106268</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04024539159896472</v>
+        <v>-0.05464950060233603</v>
       </c>
       <c r="C53">
-        <v>-0.1538470741473195</v>
+        <v>0.1404013992251687</v>
       </c>
       <c r="D53">
-        <v>-0.08234384601059398</v>
+        <v>-0.0464456960837278</v>
       </c>
       <c r="E53">
-        <v>-0.07174510502440117</v>
+        <v>-0.08638358200999953</v>
       </c>
       <c r="F53">
-        <v>0.02293499724861708</v>
+        <v>0.01012806653886981</v>
       </c>
       <c r="G53">
-        <v>-0.05730854504745116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.06967530246369548</v>
+      </c>
+      <c r="H53">
+        <v>-0.01162303079551071</v>
+      </c>
+      <c r="I53">
+        <v>0.03722662667211002</v>
+      </c>
+      <c r="J53">
+        <v>0.0300351949275409</v>
+      </c>
+      <c r="K53">
+        <v>0.07889574764792354</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.009884446162740174</v>
+        <v>-0.01604031258229596</v>
       </c>
       <c r="C54">
-        <v>-0.06250015406172747</v>
+        <v>0.0725408794760012</v>
       </c>
       <c r="D54">
-        <v>0.008117067798567841</v>
+        <v>-0.002890300711839717</v>
       </c>
       <c r="E54">
-        <v>0.01314051414955908</v>
+        <v>-0.004259739332921221</v>
       </c>
       <c r="F54">
-        <v>0.03310951375827721</v>
+        <v>-0.001751881202169591</v>
       </c>
       <c r="G54">
-        <v>0.01062319479494255</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0281121278035016</v>
+      </c>
+      <c r="H54">
+        <v>0.06809637052276875</v>
+      </c>
+      <c r="I54">
+        <v>-0.01802138529420125</v>
+      </c>
+      <c r="J54">
+        <v>0.03931897035993533</v>
+      </c>
+      <c r="K54">
+        <v>-0.02208734683724548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.02676756546147347</v>
+        <v>-0.03142810810870107</v>
       </c>
       <c r="C55">
-        <v>-0.116324452591133</v>
+        <v>0.1018298297904173</v>
       </c>
       <c r="D55">
-        <v>-0.084840641928129</v>
+        <v>-0.04895429498780426</v>
       </c>
       <c r="E55">
-        <v>-0.03457074381623927</v>
+        <v>-0.07217027886465949</v>
       </c>
       <c r="F55">
-        <v>-0.01457588784444464</v>
+        <v>0.008262869617982649</v>
       </c>
       <c r="G55">
-        <v>-0.009920551091632989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03565904576669124</v>
+      </c>
+      <c r="H55">
+        <v>-0.005278090629747509</v>
+      </c>
+      <c r="I55">
+        <v>-0.02304757915259319</v>
+      </c>
+      <c r="J55">
+        <v>0.01795923900469672</v>
+      </c>
+      <c r="K55">
+        <v>0.05880607615443215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03495120252111954</v>
+        <v>-0.04211450933102544</v>
       </c>
       <c r="C56">
-        <v>-0.1877337449953864</v>
+        <v>0.1668929713929165</v>
       </c>
       <c r="D56">
-        <v>-0.1002648952673801</v>
+        <v>-0.06544448196481979</v>
       </c>
       <c r="E56">
-        <v>-0.1221120494656514</v>
+        <v>-0.1307731823465176</v>
       </c>
       <c r="F56">
-        <v>-0.02016458399287435</v>
+        <v>0.0007882659543349908</v>
       </c>
       <c r="G56">
-        <v>-0.06660981018938437</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1250016740792332</v>
+      </c>
+      <c r="H56">
+        <v>-0.0295728867789753</v>
+      </c>
+      <c r="I56">
+        <v>0.03326920637568465</v>
+      </c>
+      <c r="J56">
+        <v>-0.01221503506069644</v>
+      </c>
+      <c r="K56">
+        <v>0.05352881974214695</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02772463224432081</v>
+        <v>-0.01745076970597299</v>
       </c>
       <c r="C58">
-        <v>-0.2168235942002426</v>
+        <v>0.1801823350108026</v>
       </c>
       <c r="D58">
-        <v>0.2079752263004098</v>
+        <v>-0.009125031193036884</v>
       </c>
       <c r="E58">
-        <v>0.177164603744166</v>
+        <v>0.2848453008670129</v>
       </c>
       <c r="F58">
-        <v>0.01026916595951563</v>
+        <v>-0.009622172521355624</v>
       </c>
       <c r="G58">
-        <v>-0.2334238776589995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1434992074634292</v>
+      </c>
+      <c r="H58">
+        <v>0.03802109593910641</v>
+      </c>
+      <c r="I58">
+        <v>-0.0213738111049957</v>
+      </c>
+      <c r="J58">
+        <v>-0.4259644602194024</v>
+      </c>
+      <c r="K58">
+        <v>-0.2601561967079145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2790476043317205</v>
+        <v>-0.2847597970706818</v>
       </c>
       <c r="C59">
-        <v>0.01897316800576639</v>
+        <v>-0.04199642300715941</v>
       </c>
       <c r="D59">
-        <v>0.03947414439741695</v>
+        <v>0.0005047977154403029</v>
       </c>
       <c r="E59">
-        <v>0.03104699599917484</v>
+        <v>0.04501223154483406</v>
       </c>
       <c r="F59">
-        <v>-0.06285778984598665</v>
+        <v>-0.02371103584897195</v>
       </c>
       <c r="G59">
-        <v>0.03198433688917343</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01458601966119166</v>
+      </c>
+      <c r="H59">
+        <v>-0.02641610599400911</v>
+      </c>
+      <c r="I59">
+        <v>0.03525723761787296</v>
+      </c>
+      <c r="J59">
+        <v>0.008905493068992527</v>
+      </c>
+      <c r="K59">
+        <v>0.02894140388203847</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.113981230878158</v>
+        <v>-0.1473574831078781</v>
       </c>
       <c r="C60">
-        <v>-0.1348393112855577</v>
+        <v>0.1469784116544262</v>
       </c>
       <c r="D60">
-        <v>-0.04927319981781165</v>
+        <v>-0.03398312494534559</v>
       </c>
       <c r="E60">
-        <v>0.0351516657552624</v>
+        <v>-0.06537833114982471</v>
       </c>
       <c r="F60">
-        <v>0.1166346962187888</v>
+        <v>-0.04082491482924675</v>
       </c>
       <c r="G60">
-        <v>0.2979122109759605</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.261250475177058</v>
+      </c>
+      <c r="H60">
+        <v>-0.2603022303687596</v>
+      </c>
+      <c r="I60">
+        <v>-0.04103466712119204</v>
+      </c>
+      <c r="J60">
+        <v>-0.01548141941396528</v>
+      </c>
+      <c r="K60">
+        <v>-0.0919233420579446</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006246889196009422</v>
+        <v>-0.01845197841457518</v>
       </c>
       <c r="C61">
-        <v>-0.09682276975794396</v>
+        <v>0.1041605514058273</v>
       </c>
       <c r="D61">
-        <v>-0.03444247922557237</v>
+        <v>-0.04376934390264464</v>
       </c>
       <c r="E61">
-        <v>0.03592060421425811</v>
+        <v>-0.01487685077624958</v>
       </c>
       <c r="F61">
-        <v>0.04049144674890318</v>
+        <v>-0.001613784211001723</v>
       </c>
       <c r="G61">
-        <v>0.06817750499196049</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.04984414894611459</v>
+      </c>
+      <c r="H61">
+        <v>0.04528219056501992</v>
+      </c>
+      <c r="I61">
+        <v>-0.02211661895893264</v>
+      </c>
+      <c r="J61">
+        <v>0.03639432392290087</v>
+      </c>
+      <c r="K61">
+        <v>0.04295889715410248</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0007738733464115629</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004303593478821218</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.002854141269300177</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.01201776988888108</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.002407574617233403</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.0201832453062833</v>
+      </c>
+      <c r="H62">
+        <v>0.00967360951711462</v>
+      </c>
+      <c r="I62">
+        <v>-0.005596266314667614</v>
+      </c>
+      <c r="J62">
+        <v>0.007597025800919874</v>
+      </c>
+      <c r="K62">
+        <v>-0.01051372609962788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.002911386731395045</v>
+        <v>-0.02334199481689016</v>
       </c>
       <c r="C63">
-        <v>-0.06397483698493107</v>
+        <v>0.07528409897761931</v>
       </c>
       <c r="D63">
-        <v>-0.01080983898926869</v>
+        <v>-0.04522138689588296</v>
       </c>
       <c r="E63">
-        <v>0.02344837761209403</v>
+        <v>-0.0002559782352177131</v>
       </c>
       <c r="F63">
-        <v>0.03114312523585767</v>
+        <v>-0.004084220906873808</v>
       </c>
       <c r="G63">
-        <v>0.02002550462910198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.02646718915496469</v>
+      </c>
+      <c r="H63">
+        <v>0.0558566869887979</v>
+      </c>
+      <c r="I63">
+        <v>-0.002549375631603931</v>
+      </c>
+      <c r="J63">
+        <v>0.03376363190762027</v>
+      </c>
+      <c r="K63">
+        <v>0.0533583304573692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.006209986843774658</v>
+        <v>-0.01865710577927257</v>
       </c>
       <c r="C64">
-        <v>-0.1104509825431721</v>
+        <v>0.1003666289657691</v>
       </c>
       <c r="D64">
-        <v>-0.03963415728489281</v>
+        <v>-0.02959176987909227</v>
       </c>
       <c r="E64">
-        <v>0.02875195550826402</v>
+        <v>0.03959413317213684</v>
       </c>
       <c r="F64">
-        <v>0.020048008869539</v>
+        <v>0.02580559165434433</v>
       </c>
       <c r="G64">
-        <v>0.01278933317011521</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01859562869371381</v>
+      </c>
+      <c r="H64">
+        <v>0.03763521711263769</v>
+      </c>
+      <c r="I64">
+        <v>-0.02263439271746087</v>
+      </c>
+      <c r="J64">
+        <v>0.03042979295305675</v>
+      </c>
+      <c r="K64">
+        <v>0.1059121979105878</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02040167293943556</v>
+        <v>-0.02931450933468428</v>
       </c>
       <c r="C65">
-        <v>-0.06909970697702493</v>
+        <v>0.08774762690200723</v>
       </c>
       <c r="D65">
-        <v>0.03383601620357781</v>
+        <v>-0.004858601303824865</v>
       </c>
       <c r="E65">
-        <v>0.07046489134418395</v>
+        <v>0.06077590125862188</v>
       </c>
       <c r="F65">
-        <v>0.04684240363233406</v>
+        <v>0.01350047332960014</v>
       </c>
       <c r="G65">
-        <v>0.07516546913610773</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.1268547228095157</v>
+      </c>
+      <c r="H65">
+        <v>-0.01019480605571668</v>
+      </c>
+      <c r="I65">
+        <v>-0.08754752107697046</v>
+      </c>
+      <c r="J65">
+        <v>-0.0587295137123134</v>
+      </c>
+      <c r="K65">
+        <v>-0.02828647258379588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.002634868851000753</v>
+        <v>-0.01123205866483421</v>
       </c>
       <c r="C66">
-        <v>-0.1649984470675707</v>
+        <v>0.1621006546672316</v>
       </c>
       <c r="D66">
-        <v>0.03312708862349406</v>
+        <v>-0.03143760363345886</v>
       </c>
       <c r="E66">
-        <v>0.08265110816109297</v>
+        <v>0.03025215334035015</v>
       </c>
       <c r="F66">
-        <v>0.02903553038012176</v>
+        <v>-0.01320177913500822</v>
       </c>
       <c r="G66">
-        <v>0.07467184486136914</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04283871183387613</v>
+      </c>
+      <c r="H66">
+        <v>0.04490546837725026</v>
+      </c>
+      <c r="I66">
+        <v>-0.03314769982070588</v>
+      </c>
+      <c r="J66">
+        <v>-0.007024555909614453</v>
+      </c>
+      <c r="K66">
+        <v>0.03163226514063031</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.01787763237797429</v>
+        <v>-0.02003396146773222</v>
       </c>
       <c r="C67">
-        <v>-0.04399430946180347</v>
+        <v>0.05746909263987447</v>
       </c>
       <c r="D67">
-        <v>-0.04587502749883817</v>
+        <v>-0.03454391851625314</v>
       </c>
       <c r="E67">
-        <v>0.02282744654697683</v>
+        <v>-0.001673568283884343</v>
       </c>
       <c r="F67">
-        <v>0.0210059969986969</v>
+        <v>0.02948599510029412</v>
       </c>
       <c r="G67">
-        <v>-0.02423844593241166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03387234322926876</v>
+      </c>
+      <c r="H67">
+        <v>0.04476806146844106</v>
+      </c>
+      <c r="I67">
+        <v>0.05104658399682561</v>
+      </c>
+      <c r="J67">
+        <v>0.04806789732843221</v>
+      </c>
+      <c r="K67">
+        <v>0.0524913008284139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2617894636531521</v>
+        <v>-0.2887943363059854</v>
       </c>
       <c r="C68">
-        <v>0.03180510445894709</v>
+        <v>-0.04641878182237268</v>
       </c>
       <c r="D68">
-        <v>0.0422661121688166</v>
+        <v>0.02664074546573927</v>
       </c>
       <c r="E68">
-        <v>0.03141212692794808</v>
+        <v>0.06518887061072753</v>
       </c>
       <c r="F68">
-        <v>-0.02585605762597215</v>
+        <v>-0.01049041128683526</v>
       </c>
       <c r="G68">
-        <v>-0.08095005971627374</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03773491462569229</v>
+      </c>
+      <c r="H68">
+        <v>-0.01899173763928398</v>
+      </c>
+      <c r="I68">
+        <v>0.05328560372458146</v>
+      </c>
+      <c r="J68">
+        <v>0.006909699415302168</v>
+      </c>
+      <c r="K68">
+        <v>0.01357949141160709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.007372600407386147</v>
+        <v>-0.008065526182058459</v>
       </c>
       <c r="C69">
-        <v>-0.1040840831432733</v>
+        <v>0.07919904832676009</v>
       </c>
       <c r="D69">
-        <v>-0.06846697930377686</v>
+        <v>-0.02543380566392495</v>
       </c>
       <c r="E69">
-        <v>-0.01300616164066166</v>
+        <v>-0.02539940459903219</v>
       </c>
       <c r="F69">
-        <v>-0.004931647335845725</v>
+        <v>0.00122099137619023</v>
       </c>
       <c r="G69">
-        <v>-0.04816499725246431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.004353500973971421</v>
+      </c>
+      <c r="H69">
+        <v>0.05826954065687964</v>
+      </c>
+      <c r="I69">
+        <v>0.02434079269350024</v>
+      </c>
+      <c r="J69">
+        <v>0.008803895708401925</v>
+      </c>
+      <c r="K69">
+        <v>0.05284043046098496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2911540881131682</v>
+        <v>-0.2790804677634192</v>
       </c>
       <c r="C71">
-        <v>0.04541762716209796</v>
+        <v>-0.07097160227588505</v>
       </c>
       <c r="D71">
-        <v>0.01109156449905143</v>
+        <v>0.01226948002673961</v>
       </c>
       <c r="E71">
-        <v>-0.005169732496820682</v>
+        <v>0.03074803259587933</v>
       </c>
       <c r="F71">
-        <v>0.005891880509731428</v>
+        <v>0.0151438627698664</v>
       </c>
       <c r="G71">
-        <v>-0.01008568693215104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02111811008862732</v>
+      </c>
+      <c r="H71">
+        <v>0.06252023643230817</v>
+      </c>
+      <c r="I71">
+        <v>0.09461649840735865</v>
+      </c>
+      <c r="J71">
+        <v>-0.0876507373626305</v>
+      </c>
+      <c r="K71">
+        <v>0.05393670929529953</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.03022271971764485</v>
+        <v>-0.05415664373462951</v>
       </c>
       <c r="C72">
-        <v>-0.1694349048234334</v>
+        <v>0.1498971548049747</v>
       </c>
       <c r="D72">
-        <v>-0.006469121280550553</v>
+        <v>-0.02347152144684051</v>
       </c>
       <c r="E72">
-        <v>0.08991490869025014</v>
+        <v>0.008673833179414378</v>
       </c>
       <c r="F72">
-        <v>0.08984396162105207</v>
+        <v>-0.001150712033554032</v>
       </c>
       <c r="G72">
-        <v>0.0511604925922394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.05410326185490102</v>
+      </c>
+      <c r="H72">
+        <v>-0.02367423336396418</v>
+      </c>
+      <c r="I72">
+        <v>-0.09213042569857711</v>
+      </c>
+      <c r="J72">
+        <v>-0.03237573941730781</v>
+      </c>
+      <c r="K72">
+        <v>0.002565970738805917</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09356482039043779</v>
+        <v>-0.1530399458386937</v>
       </c>
       <c r="C73">
-        <v>-0.1461583943784373</v>
+        <v>0.1883436413592106</v>
       </c>
       <c r="D73">
-        <v>-0.104512568349767</v>
+        <v>-0.06151219173207453</v>
       </c>
       <c r="E73">
-        <v>0.02091313604742313</v>
+        <v>-0.1634860280746445</v>
       </c>
       <c r="F73">
-        <v>0.1839152524611399</v>
+        <v>-0.02177407385694283</v>
       </c>
       <c r="G73">
-        <v>0.391859462961884</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3964515013847246</v>
+      </c>
+      <c r="H73">
+        <v>-0.3253786188096874</v>
+      </c>
+      <c r="I73">
+        <v>0.06220952464737708</v>
+      </c>
+      <c r="J73">
+        <v>-0.1060163419209479</v>
+      </c>
+      <c r="K73">
+        <v>-0.07370574910385148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01816749082383695</v>
+        <v>-0.0357906487734678</v>
       </c>
       <c r="C74">
-        <v>-0.1112849609986972</v>
+        <v>0.1103968616645799</v>
       </c>
       <c r="D74">
-        <v>-0.0956616200241415</v>
+        <v>-0.03850641802713105</v>
       </c>
       <c r="E74">
-        <v>-0.06920255673963102</v>
+        <v>-0.07741665557942598</v>
       </c>
       <c r="F74">
-        <v>-0.01573872279314058</v>
+        <v>0.01226919894353215</v>
       </c>
       <c r="G74">
-        <v>-0.01904140357985034</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.04228384458827196</v>
+      </c>
+      <c r="H74">
+        <v>0.007099849512769436</v>
+      </c>
+      <c r="I74">
+        <v>-0.009649037249131989</v>
+      </c>
+      <c r="J74">
+        <v>-1.659025310853135e-05</v>
+      </c>
+      <c r="K74">
+        <v>0.07113738142728723</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.06637613841273368</v>
+        <v>-0.06071537250977001</v>
       </c>
       <c r="C75">
-        <v>-0.1821912132288717</v>
+        <v>0.1841464570411881</v>
       </c>
       <c r="D75">
-        <v>-0.1588137043697765</v>
+        <v>-0.06193161341973553</v>
       </c>
       <c r="E75">
-        <v>-0.1758426881643338</v>
+        <v>-0.1682173606172047</v>
       </c>
       <c r="F75">
-        <v>-0.03122423039879271</v>
+        <v>0.08439164764547495</v>
       </c>
       <c r="G75">
-        <v>-0.1510586932433766</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1846544662313253</v>
+      </c>
+      <c r="H75">
+        <v>-0.03171231429210806</v>
+      </c>
+      <c r="I75">
+        <v>0.1087219593293317</v>
+      </c>
+      <c r="J75">
+        <v>0.05085304775620405</v>
+      </c>
+      <c r="K75">
+        <v>0.05334070249331652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03923127060417458</v>
+        <v>-0.04178747679763446</v>
       </c>
       <c r="C76">
-        <v>-0.1339917689756609</v>
+        <v>0.1345075415222488</v>
       </c>
       <c r="D76">
-        <v>-0.09875275988436966</v>
+        <v>-0.06220545545532211</v>
       </c>
       <c r="E76">
-        <v>-0.08293874628040356</v>
+        <v>-0.1068584377337694</v>
       </c>
       <c r="F76">
-        <v>-0.0105230419254231</v>
+        <v>0.02248540234446128</v>
       </c>
       <c r="G76">
-        <v>0.002282794118578184</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05384106539556093</v>
+      </c>
+      <c r="H76">
+        <v>-0.001846810208168271</v>
+      </c>
+      <c r="I76">
+        <v>0.006129304227932899</v>
+      </c>
+      <c r="J76">
+        <v>0.0362324105288657</v>
+      </c>
+      <c r="K76">
+        <v>0.1401129644720004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08227455579398377</v>
+        <v>-0.04556492462428299</v>
       </c>
       <c r="C77">
-        <v>-0.1992646036114465</v>
+        <v>0.2943382735014443</v>
       </c>
       <c r="D77">
-        <v>0.6830639334584885</v>
+        <v>0.9408727965160684</v>
       </c>
       <c r="E77">
-        <v>-0.5905149602718432</v>
+        <v>-0.07611596542533791</v>
       </c>
       <c r="F77">
-        <v>0.2422074759831801</v>
+        <v>0.05364300366498893</v>
       </c>
       <c r="G77">
-        <v>0.07510970489474053</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.003015276136018816</v>
+      </c>
+      <c r="H77">
+        <v>0.04495084952163663</v>
+      </c>
+      <c r="I77">
+        <v>-0.00439393691297802</v>
+      </c>
+      <c r="J77">
+        <v>0.009043808578878968</v>
+      </c>
+      <c r="K77">
+        <v>0.008420815574409832</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03460177205286884</v>
+        <v>-0.03338409306973034</v>
       </c>
       <c r="C78">
-        <v>-0.1805698643173158</v>
+        <v>0.1329017873986321</v>
       </c>
       <c r="D78">
-        <v>-0.02478531983113835</v>
+        <v>-0.08408699679896385</v>
       </c>
       <c r="E78">
-        <v>0.04334685703175656</v>
+        <v>-0.02489592770065374</v>
       </c>
       <c r="F78">
-        <v>-0.1628883967866822</v>
+        <v>-0.03516399602102427</v>
       </c>
       <c r="G78">
-        <v>-0.01901352908369936</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.1221912930324541</v>
+      </c>
+      <c r="H78">
+        <v>0.08416715450008842</v>
+      </c>
+      <c r="I78">
+        <v>-0.2063137570213608</v>
+      </c>
+      <c r="J78">
+        <v>-0.4262573776348197</v>
+      </c>
+      <c r="K78">
+        <v>0.02045091287356486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.0400608925338451</v>
+        <v>-0.05626850133711688</v>
       </c>
       <c r="C79">
-        <v>-0.2226320224661498</v>
+        <v>0.173545785314501</v>
       </c>
       <c r="D79">
-        <v>-0.1607342861633114</v>
+        <v>-0.0572218407166195</v>
       </c>
       <c r="E79">
-        <v>-0.1662158611422285</v>
+        <v>-0.1479868860316966</v>
       </c>
       <c r="F79">
-        <v>-0.1284854197322517</v>
+        <v>0.0115931088111843</v>
       </c>
       <c r="G79">
-        <v>-0.1397780688859714</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2177932390555772</v>
+      </c>
+      <c r="H79">
+        <v>0.02021000824828492</v>
+      </c>
+      <c r="I79">
+        <v>0.08144535245235396</v>
+      </c>
+      <c r="J79">
+        <v>-0.02287367013124791</v>
+      </c>
+      <c r="K79">
+        <v>0.05536024689670306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007499751084970887</v>
+        <v>-0.01854471347100773</v>
       </c>
       <c r="C80">
-        <v>-0.06554488630246427</v>
+        <v>0.06031046989850577</v>
       </c>
       <c r="D80">
-        <v>-0.03346874279343155</v>
+        <v>-0.03958482157241159</v>
       </c>
       <c r="E80">
-        <v>-0.003172915918367853</v>
+        <v>0.01276701818277335</v>
       </c>
       <c r="F80">
-        <v>-0.006602879811094684</v>
+        <v>-0.05112972470934654</v>
       </c>
       <c r="G80">
-        <v>0.008200855818981306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.03992707206824909</v>
+      </c>
+      <c r="H80">
+        <v>-0.04029028378206429</v>
+      </c>
+      <c r="I80">
+        <v>0.05448970939702359</v>
+      </c>
+      <c r="J80">
+        <v>0.07833526553656327</v>
+      </c>
+      <c r="K80">
+        <v>0.05231280011627751</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.02139622939208483</v>
+        <v>-0.01757666825607407</v>
       </c>
       <c r="C81">
-        <v>-0.1124725156314821</v>
+        <v>0.1098455608193586</v>
       </c>
       <c r="D81">
-        <v>-0.1241001394414035</v>
+        <v>-0.03961637158090564</v>
       </c>
       <c r="E81">
-        <v>-0.1380081581603064</v>
+        <v>-0.09092991304436469</v>
       </c>
       <c r="F81">
-        <v>-0.03741361057619999</v>
+        <v>0.01123703126527072</v>
       </c>
       <c r="G81">
-        <v>-0.05713011339305252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1075731569374865</v>
+      </c>
+      <c r="H81">
+        <v>0.05432671555428499</v>
+      </c>
+      <c r="I81">
+        <v>0.06895258632780712</v>
+      </c>
+      <c r="J81">
+        <v>0.0327328798839673</v>
+      </c>
+      <c r="K81">
+        <v>0.1006346624056094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.03844380551896901</v>
+        <v>-0.04536350917497552</v>
       </c>
       <c r="C82">
-        <v>-0.1370295023344625</v>
+        <v>0.1231210240285953</v>
       </c>
       <c r="D82">
-        <v>-0.1269188092301869</v>
+        <v>-0.06289883902427683</v>
       </c>
       <c r="E82">
-        <v>-0.0876437273648237</v>
+        <v>-0.1052685759546708</v>
       </c>
       <c r="F82">
-        <v>0.002276798439809821</v>
+        <v>0.01191344876200309</v>
       </c>
       <c r="G82">
-        <v>-0.02012946953291906</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.07446389438310522</v>
+      </c>
+      <c r="H82">
+        <v>0.01688450589437882</v>
+      </c>
+      <c r="I82">
+        <v>0.02006567526489031</v>
+      </c>
+      <c r="J82">
+        <v>0.01751011663201998</v>
+      </c>
+      <c r="K82">
+        <v>0.1132371592931841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.003466639257631918</v>
+        <v>0.0008463332926882329</v>
       </c>
       <c r="C83">
-        <v>-0.04457332268338108</v>
+        <v>0.002428601620892909</v>
       </c>
       <c r="D83">
-        <v>0.2134407373386839</v>
+        <v>0.05836859194328693</v>
       </c>
       <c r="E83">
-        <v>-0.08282530750051043</v>
+        <v>-0.05168147106790144</v>
       </c>
       <c r="F83">
-        <v>-0.819465057266244</v>
+        <v>-0.9520854863651794</v>
       </c>
       <c r="G83">
-        <v>0.3714854772290433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.1311857543286663</v>
+      </c>
+      <c r="H83">
+        <v>-0.09345959509593746</v>
+      </c>
+      <c r="I83">
+        <v>-0.03174346059692555</v>
+      </c>
+      <c r="J83">
+        <v>0.03254971970821119</v>
+      </c>
+      <c r="K83">
+        <v>0.08337209385609912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.0001911603886869786</v>
+        <v>0.0004612573296017776</v>
       </c>
       <c r="C84">
-        <v>-0.03925106350256607</v>
+        <v>0.03789016791451345</v>
       </c>
       <c r="D84">
-        <v>0.016172291891131</v>
+        <v>-0.0577399328365823</v>
       </c>
       <c r="E84">
-        <v>0.09283140085505642</v>
+        <v>0.08481814959831421</v>
       </c>
       <c r="F84">
-        <v>0.02353353548624189</v>
+        <v>0.01971606222561381</v>
       </c>
       <c r="G84">
-        <v>-0.1129991023758757</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04244966568502984</v>
+      </c>
+      <c r="H84">
+        <v>0.07928898210357876</v>
+      </c>
+      <c r="I84">
+        <v>-0.06648300570661475</v>
+      </c>
+      <c r="J84">
+        <v>0.06509889777864443</v>
+      </c>
+      <c r="K84">
+        <v>0.0473613397730341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.03221251176962198</v>
+        <v>-0.03048909954068324</v>
       </c>
       <c r="C85">
-        <v>-0.159246424757448</v>
+        <v>0.1326574815155979</v>
       </c>
       <c r="D85">
-        <v>-0.1475505508201985</v>
+        <v>-0.06696187331663156</v>
       </c>
       <c r="E85">
-        <v>-0.1544361636762366</v>
+        <v>-0.1680251188758013</v>
       </c>
       <c r="F85">
-        <v>-0.08755657436361822</v>
+        <v>0.02799617183833043</v>
       </c>
       <c r="G85">
-        <v>-0.1304572723158531</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1584453367710151</v>
+      </c>
+      <c r="H85">
+        <v>-0.01396615720014345</v>
+      </c>
+      <c r="I85">
+        <v>0.08363103312095455</v>
+      </c>
+      <c r="J85">
+        <v>0.05539832514687103</v>
+      </c>
+      <c r="K85">
+        <v>0.1557642421150492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.04075562474344575</v>
+        <v>-0.0192424305171119</v>
       </c>
       <c r="C86">
-        <v>-0.04766156477451329</v>
+        <v>0.06970349878933982</v>
       </c>
       <c r="D86">
-        <v>0.05774315990216767</v>
+        <v>-0.01799469867644841</v>
       </c>
       <c r="E86">
-        <v>0.03819015631163954</v>
+        <v>0.05399170762496211</v>
       </c>
       <c r="F86">
-        <v>0.04332067678568458</v>
+        <v>-0.009153067863231114</v>
       </c>
       <c r="G86">
-        <v>0.03365850211035708</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07137813541393331</v>
+      </c>
+      <c r="H86">
+        <v>0.08114107558869299</v>
+      </c>
+      <c r="I86">
+        <v>0.1157087768994411</v>
+      </c>
+      <c r="J86">
+        <v>-0.1901275785379925</v>
+      </c>
+      <c r="K86">
+        <v>-0.004891373513284847</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.04079611019135289</v>
+        <v>-0.0207236899391455</v>
       </c>
       <c r="C87">
-        <v>-0.1445079309049389</v>
+        <v>0.1275859718610674</v>
       </c>
       <c r="D87">
-        <v>0.05892155244295617</v>
+        <v>-0.002870172960154845</v>
       </c>
       <c r="E87">
-        <v>0.09900248847772293</v>
+        <v>0.08312084947077418</v>
       </c>
       <c r="F87">
-        <v>0.002721732485578224</v>
+        <v>-0.003221650211232792</v>
       </c>
       <c r="G87">
-        <v>0.02232164247988097</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.00767829068816178</v>
+      </c>
+      <c r="H87">
+        <v>0.0175732516056772</v>
+      </c>
+      <c r="I87">
+        <v>-0.1282829485657647</v>
+      </c>
+      <c r="J87">
+        <v>-0.07003317689189978</v>
+      </c>
+      <c r="K87">
+        <v>0.07351822073791324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01133489855761212</v>
+        <v>-0.03690990306409626</v>
       </c>
       <c r="C88">
-        <v>-0.06378515203758001</v>
+        <v>0.08009587101840882</v>
       </c>
       <c r="D88">
-        <v>-0.07095848569208672</v>
+        <v>-0.03651759084872595</v>
       </c>
       <c r="E88">
-        <v>-0.02464988591367144</v>
+        <v>-0.01501443469389158</v>
       </c>
       <c r="F88">
-        <v>0.0341565749160133</v>
+        <v>0.01579610970472647</v>
       </c>
       <c r="G88">
-        <v>-0.002822098862502318</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02497243894638257</v>
+      </c>
+      <c r="H88">
+        <v>-0.003016907836368497</v>
+      </c>
+      <c r="I88">
+        <v>0.0269240512820473</v>
+      </c>
+      <c r="J88">
+        <v>0.08838258411830374</v>
+      </c>
+      <c r="K88">
+        <v>0.08464721742144993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.394261661669289</v>
+        <v>-0.39277777435781</v>
       </c>
       <c r="C89">
-        <v>0.07147066926018417</v>
+        <v>-0.09956233685941789</v>
       </c>
       <c r="D89">
-        <v>-0.08489136047144301</v>
+        <v>0.01517360619767839</v>
       </c>
       <c r="E89">
-        <v>0.1324223280729236</v>
+        <v>0.06799469210438079</v>
       </c>
       <c r="F89">
-        <v>-0.08129317996770495</v>
+        <v>0.01644626019414043</v>
       </c>
       <c r="G89">
-        <v>-0.02535610168418667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.03093310337302918</v>
+      </c>
+      <c r="H89">
+        <v>-0.008964990160474343</v>
+      </c>
+      <c r="I89">
+        <v>-0.7549807933137478</v>
+      </c>
+      <c r="J89">
+        <v>0.161607968647157</v>
+      </c>
+      <c r="K89">
+        <v>0.05809857950272954</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.2990523732487531</v>
+        <v>-0.312268231016638</v>
       </c>
       <c r="C90">
-        <v>0.04844114724244559</v>
+        <v>-0.07344885641064172</v>
       </c>
       <c r="D90">
-        <v>0.04489101932993161</v>
+        <v>0.006003936606490068</v>
       </c>
       <c r="E90">
-        <v>0.02524295379172256</v>
+        <v>0.03675869890771184</v>
       </c>
       <c r="F90">
-        <v>-0.03616762516688729</v>
+        <v>-0.01560565911961793</v>
       </c>
       <c r="G90">
-        <v>0.00688847333249646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.007694621507964574</v>
+      </c>
+      <c r="H90">
+        <v>-0.0009571562364526285</v>
+      </c>
+      <c r="I90">
+        <v>0.1306688921277367</v>
+      </c>
+      <c r="J90">
+        <v>-0.01357482509082985</v>
+      </c>
+      <c r="K90">
+        <v>-0.006402721790237675</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.0394411828905134</v>
+        <v>-0.0517734161227083</v>
       </c>
       <c r="C91">
-        <v>-0.1289482214985236</v>
+        <v>0.1112538392632714</v>
       </c>
       <c r="D91">
-        <v>-0.0831687746454994</v>
+        <v>-0.03286391628909869</v>
       </c>
       <c r="E91">
-        <v>-0.09670659016012068</v>
+        <v>-0.08809675288849755</v>
       </c>
       <c r="F91">
-        <v>-0.0440264902426047</v>
+        <v>-0.01975594859242562</v>
       </c>
       <c r="G91">
-        <v>-0.05725203650306283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.08346093470126126</v>
+      </c>
+      <c r="H91">
+        <v>-0.01075941714926898</v>
+      </c>
+      <c r="I91">
+        <v>0.01084863153060875</v>
+      </c>
+      <c r="J91">
+        <v>0.04958965600365838</v>
+      </c>
+      <c r="K91">
+        <v>0.05144922962357962</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3719229662879966</v>
+        <v>-0.3527819410470993</v>
       </c>
       <c r="C92">
-        <v>0.1096835159377873</v>
+        <v>-0.1258558230497942</v>
       </c>
       <c r="D92">
-        <v>0.03562946298810687</v>
+        <v>0.04230998666592563</v>
       </c>
       <c r="E92">
-        <v>0.03748491554891505</v>
+        <v>0.07839601645496232</v>
       </c>
       <c r="F92">
-        <v>0.08826569795415992</v>
+        <v>0.03762987650889121</v>
       </c>
       <c r="G92">
-        <v>-0.07870742879380847</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01906482916956401</v>
+      </c>
+      <c r="H92">
+        <v>0.08113606645555181</v>
+      </c>
+      <c r="I92">
+        <v>0.1638431085374528</v>
+      </c>
+      <c r="J92">
+        <v>-0.0190675798447433</v>
+      </c>
+      <c r="K92">
+        <v>-0.06152241980791638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3282124482086477</v>
+        <v>-0.319223912210868</v>
       </c>
       <c r="C93">
-        <v>0.0886527015022075</v>
+        <v>-0.1171969982834015</v>
       </c>
       <c r="D93">
-        <v>-0.02205503418860265</v>
+        <v>-0.003939083092602544</v>
       </c>
       <c r="E93">
-        <v>-0.004086811198223461</v>
+        <v>0.003358378957931518</v>
       </c>
       <c r="F93">
-        <v>-0.01785039112123399</v>
+        <v>-0.0046450675734389</v>
       </c>
       <c r="G93">
-        <v>0.008227851323501449</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04207027091350764</v>
+      </c>
+      <c r="H93">
+        <v>0.05428082278225306</v>
+      </c>
+      <c r="I93">
+        <v>0.1274736675401598</v>
+      </c>
+      <c r="J93">
+        <v>-0.05122228723893407</v>
+      </c>
+      <c r="K93">
+        <v>0.03109652220546859</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.06744458749222156</v>
+        <v>-0.07607971355191911</v>
       </c>
       <c r="C94">
-        <v>-0.2050448364500715</v>
+        <v>0.1822204814247345</v>
       </c>
       <c r="D94">
-        <v>-0.2170350355023178</v>
+        <v>-0.08377166228882414</v>
       </c>
       <c r="E94">
-        <v>-0.217617381786337</v>
+        <v>-0.2634698798269505</v>
       </c>
       <c r="F94">
-        <v>-0.1388028119622284</v>
+        <v>0.06169468477088075</v>
       </c>
       <c r="G94">
-        <v>-0.2150624093036306</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.4350550469890728</v>
+      </c>
+      <c r="H94">
+        <v>-0.1459616077963492</v>
+      </c>
+      <c r="I94">
+        <v>-0.09900231776099229</v>
+      </c>
+      <c r="J94">
+        <v>0.2536528747645895</v>
+      </c>
+      <c r="K94">
+        <v>-0.5767336449109288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02855535652350766</v>
+        <v>-0.03854668174759715</v>
       </c>
       <c r="C95">
-        <v>-0.06299682727788183</v>
+        <v>0.1105953838206233</v>
       </c>
       <c r="D95">
-        <v>-0.03731141764562706</v>
+        <v>-0.03357699355993866</v>
       </c>
       <c r="E95">
-        <v>-0.009148037089017598</v>
+        <v>-0.01233043924972462</v>
       </c>
       <c r="F95">
-        <v>0.07114133316904833</v>
+        <v>0.0462662725802236</v>
       </c>
       <c r="G95">
-        <v>0.1454216390573667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1273207044168665</v>
+      </c>
+      <c r="H95">
+        <v>0.05281299648474212</v>
+      </c>
+      <c r="I95">
+        <v>-0.05294659588509291</v>
+      </c>
+      <c r="J95">
+        <v>0.1814171295540281</v>
+      </c>
+      <c r="K95">
+        <v>0.3216686795847596</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.009893677648393166</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0161692714250831</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.01660598605050702</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.02524185383625068</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.0336004431222996</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.03884000353148496</v>
+      </c>
+      <c r="H97">
+        <v>0.002699407934569765</v>
+      </c>
+      <c r="I97">
+        <v>-0.01989276735910371</v>
+      </c>
+      <c r="J97">
+        <v>-0.01124717701042214</v>
+      </c>
+      <c r="K97">
+        <v>-0.007884755927286059</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.0829763919951356</v>
+        <v>-0.132624964894608</v>
       </c>
       <c r="C98">
-        <v>-0.1510156556250135</v>
+        <v>0.1595304363664017</v>
       </c>
       <c r="D98">
-        <v>-0.06085247092086158</v>
+        <v>-0.07336205294013108</v>
       </c>
       <c r="E98">
-        <v>0.03172217455187736</v>
+        <v>-0.1391654497734373</v>
       </c>
       <c r="F98">
-        <v>0.1345692497599633</v>
+        <v>-0.0175812334788649</v>
       </c>
       <c r="G98">
-        <v>0.2876649960928147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3435395567445581</v>
+      </c>
+      <c r="H98">
+        <v>-0.3507710350707889</v>
+      </c>
+      <c r="I98">
+        <v>0.05718958191586006</v>
+      </c>
+      <c r="J98">
+        <v>-0.1318266633329994</v>
+      </c>
+      <c r="K98">
+        <v>-0.1753860123107826</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.003688939819095667</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.01170274805723083</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.005350684373890301</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.01234554977780404</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.01352236608100391</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.003792586869390807</v>
+      </c>
+      <c r="H99">
+        <v>0.05775334003625273</v>
+      </c>
+      <c r="I99">
+        <v>0.004263953468965422</v>
+      </c>
+      <c r="J99">
+        <v>-0.03080861184032582</v>
+      </c>
+      <c r="K99">
+        <v>-0.118508333413847</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.011241256437644</v>
+        <v>-0.01159630716567118</v>
       </c>
       <c r="C101">
-        <v>-0.06074114273349926</v>
+        <v>0.07786272094041825</v>
       </c>
       <c r="D101">
-        <v>0.01612614022485098</v>
+        <v>-0.0366899719316807</v>
       </c>
       <c r="E101">
-        <v>0.09774177408493855</v>
+        <v>0.06007204383246847</v>
       </c>
       <c r="F101">
-        <v>0.03558048765149259</v>
+        <v>-0.06556245497836509</v>
       </c>
       <c r="G101">
-        <v>0.1110087871614615</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1595967937625801</v>
+      </c>
+      <c r="H101">
+        <v>0.2845090107192955</v>
+      </c>
+      <c r="I101">
+        <v>-0.02435698219102229</v>
+      </c>
+      <c r="J101">
+        <v>0.1913541152417429</v>
+      </c>
+      <c r="K101">
+        <v>-0.2718566610457002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.01649503165072342</v>
+        <v>-0.00627106045836772</v>
       </c>
       <c r="C102">
-        <v>-0.07001290117234811</v>
+        <v>0.03247591442470495</v>
       </c>
       <c r="D102">
-        <v>-0.04322866950976224</v>
+        <v>-0.008051509419595506</v>
       </c>
       <c r="E102">
-        <v>-0.05005213667843775</v>
+        <v>-0.03188768702778055</v>
       </c>
       <c r="F102">
-        <v>-0.02822121008876642</v>
+        <v>-0.004879946417788307</v>
       </c>
       <c r="G102">
-        <v>-0.01050270872241054</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03724483068376305</v>
+      </c>
+      <c r="H102">
+        <v>0.009224956183449907</v>
+      </c>
+      <c r="I102">
+        <v>-0.02117544448069364</v>
+      </c>
+      <c r="J102">
+        <v>-0.00535232283872275</v>
+      </c>
+      <c r="K102">
+        <v>-0.01606477175006234</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
